--- a/data_file/附件2-关于沙盘及智慧拓客工单透明化的需求@WBS工作量分解表.xlsx
+++ b/data_file/附件2-关于沙盘及智慧拓客工单透明化的需求@WBS工作量分解表.xlsx
@@ -376,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -578,6 +578,9 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -728,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +779,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1161,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1226,16 +1250,20 @@
       </c>
       <c r="D2" s="11" t="inlineStr">
         <is>
-          <t>任务摸排</t>
+          <t>企业摸排</t>
         </is>
       </c>
       <c r="E2" s="12" t="inlineStr">
         <is>
-          <t>1. 调整按钮功能</t>
+          <t>1. 重新设计并重构PC端任务流/工单流转UI界面及样式，输出静态代码
+2. 调整过程表记录逻辑，仅记录创建、提交、审批环节，去除上门打卡等操作记录
+3. 移除"撤回"按钮，新增"进度"按钮并支持跳转至工单流转页面
+4. 重构待审批TAB的企业卡片信息，添加"自主摸排"和"任务调度"标签进行区分
+5. 调度PROM侧接口，实现工单流转信息的实时展示</t>
         </is>
       </c>
       <c r="F2" s="11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" s="1">
@@ -1260,11 +1288,15 @@
       </c>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>1. 优化审批页面功能</t>
+          <t>1. 修改接口，添加角色信息并调整操作类型
+2. 将"摸排信息审核"名称变更为"审核管理"
+3. 审批页面新增"待审批"和"待处理"TAB，分别用于查看和处理企业信息审批流程
+4. 默认展示待审批TAB，显示当前工号提交的企业信息修改
+5. 优化搜索逻辑，切换TAB时仅搜索对应TAB下的企业名称</t>
         </is>
       </c>
       <c r="F3" s="11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1274,330 +1306,460 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>任务执行</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>一线摸排</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>自主摸排</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
-        <is>
-          <t>1. 重构企业信息展示卡片，添加"自主摸排"和"任务调度"分类标签</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>任务评估</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>任务跟踪</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>工单查询</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>1. 调整过程表记录规则，仅保留创建、提交和审批环节
-2. 修改接口数据，添加角色信息并调整操作类型
-3. 集成PROM侧接口，实现工单流转信息的实时展示</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>任务调度</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>任务下发</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>任务信息配置</t>
-        </is>
-      </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>1. 重构PC端任务流UI界面，基于APP端样例设计并提供静态代码</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>市场洞察</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>企业视角</t>
-        </is>
-      </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>企业查询</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>1. 改进搜索功能，支持按TAB分类搜索企业名称</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11">
-        <f>ROW()-1</f>
-        <v/>
-      </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="C8" s="11" t="n"/>
-      <c r="D8" s="11" t="n"/>
-      <c r="E8" s="11" t="n"/>
-      <c r="F8" s="11" t="n">
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n">
         <v>19</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n"/>
+      <c r="C5" s="27" t="n"/>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="27" t="n"/>
+      <c r="C7" s="27" t="n"/>
+      <c r="D7" s="27" t="n"/>
+      <c r="E7" s="27" t="n"/>
+      <c r="F7" s="27" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="27" t="n"/>
+      <c r="B8" s="27" t="n"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+    </row>
     <row r="9">
-      <c r="A9" s="18" t="n"/>
-      <c r="B9" s="18" t="n"/>
-      <c r="C9" s="18" t="n"/>
-      <c r="D9" s="18" t="n"/>
-      <c r="E9" s="18" t="n"/>
-      <c r="F9" s="18" t="n"/>
+      <c r="A9" s="27" t="n"/>
+      <c r="B9" s="27" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n"/>
-      <c r="B10" s="18" t="n"/>
-      <c r="C10" s="18" t="n"/>
-      <c r="D10" s="18" t="n"/>
-      <c r="E10" s="18" t="n"/>
-      <c r="F10" s="18" t="n"/>
+      <c r="A10" s="27" t="n"/>
+      <c r="B10" s="27" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n"/>
-      <c r="B11" s="18" t="n"/>
-      <c r="C11" s="18" t="n"/>
-      <c r="D11" s="18" t="n"/>
-      <c r="E11" s="18" t="n"/>
-      <c r="F11" s="18" t="n"/>
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n"/>
-      <c r="B12" s="18" t="n"/>
-      <c r="C12" s="18" t="n"/>
-      <c r="D12" s="18" t="n"/>
-      <c r="E12" s="18" t="n"/>
-      <c r="F12" s="18" t="n"/>
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="n"/>
-      <c r="B13" s="18" t="n"/>
-      <c r="C13" s="18" t="n"/>
-      <c r="D13" s="18" t="n"/>
-      <c r="E13" s="18" t="n"/>
-      <c r="F13" s="18" t="n"/>
+      <c r="A13" s="27" t="n"/>
+      <c r="B13" s="27" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="n"/>
-      <c r="B14" s="18" t="n"/>
-      <c r="C14" s="18" t="n"/>
-      <c r="D14" s="18" t="n"/>
-      <c r="E14" s="18" t="n"/>
-      <c r="F14" s="18" t="n"/>
+      <c r="A14" s="27" t="n"/>
+      <c r="B14" s="27" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="27" t="n"/>
+      <c r="E14" s="27" t="n"/>
+      <c r="F14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="18" t="n"/>
-      <c r="C15" s="18" t="n"/>
-      <c r="D15" s="18" t="n"/>
-      <c r="E15" s="18" t="n"/>
-      <c r="F15" s="18" t="n"/>
+      <c r="A15" s="27" t="n"/>
+      <c r="B15" s="27" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="27" t="n"/>
+      <c r="F15" s="27" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="18" t="n"/>
-      <c r="C16" s="18" t="n"/>
-      <c r="D16" s="18" t="n"/>
-      <c r="E16" s="18" t="n"/>
-      <c r="F16" s="18" t="n"/>
+      <c r="A16" s="27" t="n"/>
+      <c r="B16" s="27" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="n"/>
-      <c r="B17" s="18" t="n"/>
-      <c r="C17" s="18" t="n"/>
-      <c r="D17" s="18" t="n"/>
-      <c r="E17" s="18" t="n"/>
-      <c r="F17" s="18" t="n"/>
+      <c r="A17" s="27" t="n"/>
+      <c r="B17" s="27" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="n"/>
+      <c r="F17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="n"/>
-      <c r="B18" s="18" t="n"/>
-      <c r="C18" s="18" t="n"/>
-      <c r="D18" s="18" t="n"/>
-      <c r="E18" s="18" t="n"/>
-      <c r="F18" s="18" t="n"/>
+      <c r="A18" s="27" t="n"/>
+      <c r="B18" s="27" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="n"/>
-      <c r="B19" s="18" t="n"/>
-      <c r="C19" s="18" t="n"/>
-      <c r="D19" s="18" t="n"/>
-      <c r="E19" s="18" t="n"/>
-      <c r="F19" s="18" t="n"/>
+      <c r="A19" s="27" t="n"/>
+      <c r="B19" s="27" t="n"/>
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="27" t="n"/>
+      <c r="E19" s="27" t="n"/>
+      <c r="F19" s="27" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="n"/>
-      <c r="B20" s="18" t="n"/>
-      <c r="C20" s="18" t="n"/>
-      <c r="D20" s="18" t="n"/>
-      <c r="E20" s="18" t="n"/>
-      <c r="F20" s="18" t="n"/>
+      <c r="A20" s="27" t="n"/>
+      <c r="B20" s="27" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="27" t="n"/>
+      <c r="E20" s="27" t="n"/>
+      <c r="F20" s="27" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="n"/>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="18" t="n"/>
-      <c r="D21" s="18" t="n"/>
-      <c r="E21" s="18" t="n"/>
-      <c r="F21" s="18" t="n"/>
+      <c r="A21" s="27" t="n"/>
+      <c r="B21" s="27" t="n"/>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="27" t="n"/>
+      <c r="E21" s="27" t="n"/>
+      <c r="F21" s="27" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="n"/>
-      <c r="B22" s="18" t="n"/>
-      <c r="C22" s="18" t="n"/>
-      <c r="D22" s="18" t="n"/>
-      <c r="E22" s="18" t="n"/>
-      <c r="F22" s="18" t="n"/>
+      <c r="A22" s="27" t="n"/>
+      <c r="B22" s="27" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="27" t="n"/>
+      <c r="E22" s="27" t="n"/>
+      <c r="F22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="n"/>
-      <c r="B23" s="18" t="n"/>
-      <c r="C23" s="18" t="n"/>
-      <c r="D23" s="18" t="n"/>
-      <c r="E23" s="18" t="n"/>
-      <c r="F23" s="18" t="n"/>
+      <c r="A23" s="27" t="n"/>
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="n"/>
-      <c r="B24" s="18" t="n"/>
-      <c r="C24" s="18" t="n"/>
-      <c r="D24" s="18" t="n"/>
-      <c r="E24" s="18" t="n"/>
-      <c r="F24" s="18" t="n"/>
+      <c r="A24" s="27" t="n"/>
+      <c r="B24" s="27" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="n"/>
-      <c r="B25" s="18" t="n"/>
-      <c r="C25" s="18" t="n"/>
-      <c r="D25" s="18" t="n"/>
-      <c r="E25" s="18" t="n"/>
-      <c r="F25" s="18" t="n"/>
+      <c r="A25" s="27" t="n"/>
+      <c r="B25" s="27" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="E25" s="27" t="n"/>
+      <c r="F25" s="27" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="n"/>
-      <c r="B26" s="18" t="n"/>
-      <c r="C26" s="18" t="n"/>
-      <c r="D26" s="18" t="n"/>
-      <c r="E26" s="18" t="n"/>
-      <c r="F26" s="18" t="n"/>
+      <c r="A26" s="27" t="n"/>
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="18" t="n"/>
-      <c r="B27" s="18" t="n"/>
-      <c r="C27" s="18" t="n"/>
-      <c r="D27" s="18" t="n"/>
-      <c r="E27" s="18" t="n"/>
-      <c r="F27" s="18" t="n"/>
+      <c r="A27" s="27" t="n"/>
+      <c r="B27" s="27" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="18" t="n"/>
-      <c r="B28" s="18" t="n"/>
-      <c r="C28" s="18" t="n"/>
-      <c r="D28" s="18" t="n"/>
-      <c r="E28" s="18" t="n"/>
-      <c r="F28" s="18" t="n"/>
+      <c r="A28" s="27" t="n"/>
+      <c r="B28" s="27" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="27" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="18" t="n"/>
-      <c r="B29" s="18" t="n"/>
-      <c r="C29" s="18" t="n"/>
-      <c r="D29" s="18" t="n"/>
-      <c r="E29" s="18" t="n"/>
-      <c r="F29" s="18" t="n"/>
+      <c r="A29" s="27" t="n"/>
+      <c r="B29" s="27" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="27" t="n"/>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="18" t="n"/>
-      <c r="B30" s="18" t="n"/>
-      <c r="C30" s="18" t="n"/>
-      <c r="D30" s="18" t="n"/>
-      <c r="E30" s="18" t="n"/>
-      <c r="F30" s="18" t="n"/>
+      <c r="A30" s="27" t="n"/>
+      <c r="B30" s="27" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="27" t="n"/>
+      <c r="E30" s="27" t="n"/>
+      <c r="F30" s="27" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="18" t="n"/>
-      <c r="B31" s="18" t="n"/>
-      <c r="C31" s="18" t="n"/>
-      <c r="D31" s="18" t="n"/>
-      <c r="E31" s="18" t="n"/>
-      <c r="F31" s="18" t="n"/>
-    </row>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
+      <c r="A31" s="27" t="n"/>
+      <c r="B31" s="27" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="27" t="n"/>
+      <c r="E31" s="27" t="n"/>
+      <c r="F31" s="27" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="27" t="n"/>
+      <c r="B33" s="27" t="n"/>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="27" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="27" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="27" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="27" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
+      <c r="E43" s="27" t="n"/>
+      <c r="F43" s="27" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="27" t="n"/>
+      <c r="F44" s="27" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="27" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="27" t="n"/>
+      <c r="E52" s="27" t="n"/>
+      <c r="F52" s="27" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="27" t="n"/>
+      <c r="B53" s="27" t="n"/>
+      <c r="C53" s="27" t="n"/>
+      <c r="D53" s="27" t="n"/>
+      <c r="E53" s="27" t="n"/>
+      <c r="F53" s="27" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="27" t="n"/>
+      <c r="B54" s="27" t="n"/>
+      <c r="C54" s="27" t="n"/>
+      <c r="D54" s="27" t="n"/>
+      <c r="E54" s="27" t="n"/>
+      <c r="F54" s="27" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="27" t="n"/>
+      <c r="B55" s="27" t="n"/>
+      <c r="C55" s="27" t="n"/>
+      <c r="D55" s="27" t="n"/>
+      <c r="E55" s="27" t="n"/>
+      <c r="F55" s="27" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="27" t="n"/>
+      <c r="B56" s="27" t="n"/>
+      <c r="C56" s="27" t="n"/>
+      <c r="D56" s="27" t="n"/>
+      <c r="E56" s="27" t="n"/>
+      <c r="F56" s="27" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="27" t="n"/>
+      <c r="B57" s="27" t="n"/>
+      <c r="C57" s="27" t="n"/>
+      <c r="D57" s="27" t="n"/>
+      <c r="E57" s="27" t="n"/>
+      <c r="F57" s="27" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="27" t="n"/>
+      <c r="B58" s="27" t="n"/>
+      <c r="C58" s="27" t="n"/>
+      <c r="D58" s="27" t="n"/>
+      <c r="E58" s="27" t="n"/>
+      <c r="F58" s="27" t="n"/>
+    </row>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
